--- a/biology/Médecine/Ann_E._Elsner/Ann_E._Elsner.xlsx
+++ b/biology/Médecine/Ann_E._Elsner/Ann_E._Elsner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ann E. Elsner est une chercheuse américaine et professeure émérite d'optométrie à l'université de l'Indiana à Bloomington[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ann E. Elsner est une chercheuse américaine et professeure émérite d'optométrie à l'université de l'Indiana à Bloomington.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ann Elsner est titulaire d'une licence de l'université de l'Indiana à Bloomington, d'une maîtrise et d'un doctorat de l'université de l'Oregon[2]. En 1987, elle rejoint le Schepens Eye Research Institute en tant que chercheuse[2]. En 2005, elle rejoint l'université de l'Indiana à Bloomington et devient professeure à l'école d'optométrie et directrice du Borish Center for Ophthalmic Research[3]. La même année, elle fonde et devient la PDG d'Aeon Imaging, une société de technologie de bioimagerie[4].
-En 2018, elle reçoit la médaille Edwin H. Land d'Optica. En 2020, elle reçoit la médaille du bicentenaire[3]. En 2022, elle reçoit la médaille Charles F. Prentice de l'Académie américaine d'optométrie[5].
-Elle est membre d'Optica, de l'Association pour la recherche en vision et en ophtalmologie et de l'American Academy of Optometry[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ann Elsner est titulaire d'une licence de l'université de l'Indiana à Bloomington, d'une maîtrise et d'un doctorat de l'université de l'Oregon. En 1987, elle rejoint le Schepens Eye Research Institute en tant que chercheuse. En 2005, elle rejoint l'université de l'Indiana à Bloomington et devient professeure à l'école d'optométrie et directrice du Borish Center for Ophthalmic Research. La même année, elle fonde et devient la PDG d'Aeon Imaging, une société de technologie de bioimagerie.
+En 2018, elle reçoit la médaille Edwin H. Land d'Optica. En 2020, elle reçoit la médaille du bicentenaire. En 2022, elle reçoit la médaille Charles F. Prentice de l'Académie américaine d'optométrie.
+Elle est membre d'Optica, de l'Association pour la recherche en vision et en ophtalmologie et de l'American Academy of Optometry.
 </t>
         </is>
       </c>
